--- a/lowe/edd/data/NAPA$HWS.xlsx
+++ b/lowe/edd/data/NAPA$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1391,14 +1391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH56"/>
+  <dimension ref="A1:JI56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1408,12 +1408,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1441,12 +1441,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2261,11 +2261,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3066,10 +3069,13 @@
         <v>71500</v>
       </c>
       <c r="JH9" s="11">
-        <v>71000</v>
+        <v>71200</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>71300</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3870,10 +3876,13 @@
         <v>67400</v>
       </c>
       <c r="JH10" s="11">
-        <v>67100</v>
+        <v>67400</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>68000</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4676,8 +4685,11 @@
       <c r="JH11" s="11">
         <v>3900</v>
       </c>
+      <c r="JI11" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5478,10 +5490,13 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="JH12" s="12">
-        <v>5.5E-2</v>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="JI12" s="12">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6282,10 +6297,13 @@
         <v>75100</v>
       </c>
       <c r="JH13" s="11">
-        <v>75500</v>
+        <v>75700</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>75900</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7088,8 +7106,11 @@
       <c r="JH14" s="11">
         <v>6100</v>
       </c>
+      <c r="JI14" s="11">
+        <v>5900</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7890,10 +7911,13 @@
         <v>68100</v>
       </c>
       <c r="JH15" s="11">
-        <v>69400</v>
+        <v>69600</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>70000</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8694,10 +8718,13 @@
         <v>59200</v>
       </c>
       <c r="JH16" s="11">
-        <v>60400</v>
+        <v>60600</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>60800</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9500,8 +9527,11 @@
       <c r="JH17" s="11">
         <v>17800</v>
       </c>
+      <c r="JI17" s="11">
+        <v>17800</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10304,8 +10334,11 @@
       <c r="JH18" s="11">
         <v>4400</v>
       </c>
+      <c r="JI18" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11108,8 +11141,11 @@
       <c r="JH19" s="11">
         <v>13400</v>
       </c>
+      <c r="JI19" s="11">
+        <v>13500</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -11912,8 +11948,11 @@
       <c r="JH20" s="11">
         <v>11700</v>
       </c>
+      <c r="JI20" s="11">
+        <v>11700</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -12716,8 +12755,11 @@
       <c r="JH21" s="11">
         <v>10900</v>
       </c>
+      <c r="JI21" s="11">
+        <v>11100</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -13518,10 +13560,13 @@
         <v>51000</v>
       </c>
       <c r="JH22" s="11">
-        <v>51600</v>
+        <v>51800</v>
+      </c>
+      <c r="JI22" s="11">
+        <v>52200</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -14322,10 +14367,13 @@
         <v>42100</v>
       </c>
       <c r="JH23" s="11">
-        <v>42600</v>
+        <v>42800</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>43000</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -15126,10 +15174,13 @@
         <v>9700</v>
       </c>
       <c r="JH24" s="11">
+        <v>9800</v>
+      </c>
+      <c r="JI24" s="11">
         <v>9700</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -15932,8 +15983,11 @@
       <c r="JH25" s="11">
         <v>1500</v>
       </c>
+      <c r="JI25" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -16736,8 +16790,11 @@
       <c r="JH26" s="11">
         <v>6500</v>
       </c>
+      <c r="JI26" s="11">
+        <v>6400</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -17538,10 +17595,13 @@
         <v>1700</v>
       </c>
       <c r="JH27" s="11">
-        <v>1700</v>
+        <v>1800</v>
+      </c>
+      <c r="JI27" s="11">
+        <v>1800</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -18344,8 +18404,11 @@
       <c r="JH28" s="11">
         <v>200</v>
       </c>
+      <c r="JI28" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -19148,8 +19211,11 @@
       <c r="JH29" s="11">
         <v>2000</v>
       </c>
+      <c r="JI29" s="11">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>31</v>
       </c>
@@ -19952,8 +20018,11 @@
       <c r="JH30" s="11">
         <v>7200</v>
       </c>
+      <c r="JI30" s="11">
+        <v>7200</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -20756,8 +20825,11 @@
       <c r="JH31" s="11">
         <v>4100</v>
       </c>
+      <c r="JI31" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>35</v>
       </c>
@@ -21558,10 +21630,13 @@
         <v>9600</v>
       </c>
       <c r="JH32" s="11">
-        <v>9600</v>
+        <v>9700</v>
+      </c>
+      <c r="JI32" s="11">
+        <v>9900</v>
       </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>37</v>
       </c>
@@ -22362,10 +22437,13 @@
         <v>8500</v>
       </c>
       <c r="JH33" s="11">
-        <v>8400</v>
+        <v>8500</v>
+      </c>
+      <c r="JI33" s="11">
+        <v>8600</v>
       </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>41</v>
       </c>
@@ -23168,8 +23246,11 @@
       <c r="JH34" s="11">
         <v>12100</v>
       </c>
+      <c r="JI34" s="11">
+        <v>12200</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>43</v>
       </c>
@@ -23972,8 +24053,11 @@
       <c r="JH35" s="11">
         <v>11200</v>
       </c>
+      <c r="JI35" s="11">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>45</v>
       </c>
@@ -24774,10 +24858,13 @@
         <v>6500</v>
       </c>
       <c r="JH36" s="11">
-        <v>6700</v>
+        <v>6600</v>
+      </c>
+      <c r="JI36" s="11">
+        <v>6500</v>
       </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>47</v>
       </c>
@@ -25580,8 +25667,11 @@
       <c r="JH37" s="11">
         <v>1800</v>
       </c>
+      <c r="JI37" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>48</v>
       </c>
@@ -26384,8 +26474,11 @@
       <c r="JH38" s="11">
         <v>9000</v>
       </c>
+      <c r="JI38" s="11">
+        <v>9200</v>
+      </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>49</v>
       </c>
@@ -27188,8 +27281,11 @@
       <c r="JH39" s="11">
         <v>200</v>
       </c>
+      <c r="JI39" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>53</v>
       </c>
@@ -27992,8 +28088,11 @@
       <c r="JH40" s="11">
         <v>8800</v>
       </c>
+      <c r="JI40" s="11">
+        <v>9000</v>
+      </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>54</v>
       </c>
@@ -28796,8 +28895,11 @@
       <c r="JH41" s="11">
         <v>3600</v>
       </c>
+      <c r="JI41" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>55</v>
       </c>
@@ -29600,8 +29702,11 @@
       <c r="JH42" s="11">
         <v>5200</v>
       </c>
+      <c r="JI42" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>56</v>
       </c>
@@ -30404,8 +30509,11 @@
       <c r="JH43" s="11">
         <v>2700</v>
       </c>
+      <c r="JI43" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>57</v>
       </c>
@@ -31208,8 +31316,11 @@
       <c r="JH44" s="11">
         <v>2500</v>
       </c>
+      <c r="JI44" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>58</v>
       </c>
@@ -32012,8 +32123,11 @@
       <c r="JH45" s="11">
         <v>1600</v>
       </c>
+      <c r="JI45" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>59</v>
       </c>
@@ -32816,8 +32930,11 @@
       <c r="JH46" s="11">
         <v>800</v>
       </c>
+      <c r="JI46" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>60</v>
       </c>
@@ -33618,6 +33735,9 @@
         <v>100</v>
       </c>
       <c r="JH47" s="11">
+        <v>100</v>
+      </c>
+      <c r="JI47" s="11">
         <v>100</v>
       </c>
     </row>

--- a/lowe/edd/data/NAPA$HWS.xlsx
+++ b/lowe/edd/data/NAPA$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1391,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI56"/>
+  <dimension ref="A1:JJ56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,12 +1408,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1441,12 +1441,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2264,11 +2264,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3074,8 +3077,11 @@
       <c r="JI9" s="11">
         <v>71300</v>
       </c>
+      <c r="JJ9" s="11">
+        <v>71100</v>
+      </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3879,10 +3885,13 @@
         <v>67400</v>
       </c>
       <c r="JI10" s="11">
-        <v>68000</v>
+        <v>68100</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>67900</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4686,10 +4695,13 @@
         <v>3900</v>
       </c>
       <c r="JI11" s="11">
-        <v>3300</v>
+        <v>3200</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>3200</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5493,10 +5505,13 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>4.5999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6300,10 +6315,13 @@
         <v>75700</v>
       </c>
       <c r="JI13" s="11">
-        <v>75900</v>
+        <v>76000</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>76200</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7109,8 +7127,11 @@
       <c r="JI14" s="11">
         <v>5900</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>5700</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7914,10 +7935,13 @@
         <v>69600</v>
       </c>
       <c r="JI15" s="11">
-        <v>70000</v>
+        <v>70100</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>70500</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8721,10 +8745,13 @@
         <v>60600</v>
       </c>
       <c r="JI16" s="11">
-        <v>60800</v>
+        <v>60900</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>61200</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9530,8 +9557,11 @@
       <c r="JI17" s="11">
         <v>17800</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>17900</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10337,8 +10367,11 @@
       <c r="JI18" s="11">
         <v>4300</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11144,8 +11177,11 @@
       <c r="JI19" s="11">
         <v>13500</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>13600</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -11949,10 +11985,13 @@
         <v>11700</v>
       </c>
       <c r="JI20" s="11">
-        <v>11700</v>
+        <v>12000</v>
+      </c>
+      <c r="JJ20" s="11">
+        <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -12756,10 +12795,13 @@
         <v>10900</v>
       </c>
       <c r="JI21" s="11">
-        <v>11100</v>
+        <v>11200</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>11200</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -13563,10 +13605,13 @@
         <v>51800</v>
       </c>
       <c r="JI22" s="11">
-        <v>52200</v>
+        <v>52300</v>
+      </c>
+      <c r="JJ22" s="11">
+        <v>52600</v>
       </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -14370,10 +14415,13 @@
         <v>42800</v>
       </c>
       <c r="JI23" s="11">
-        <v>43000</v>
+        <v>43100</v>
+      </c>
+      <c r="JJ23" s="11">
+        <v>43300</v>
       </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -15179,8 +15227,11 @@
       <c r="JI24" s="11">
         <v>9700</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -15986,8 +16037,11 @@
       <c r="JI25" s="11">
         <v>1500</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -16793,8 +16847,11 @@
       <c r="JI26" s="11">
         <v>6400</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>6700</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -17600,8 +17657,11 @@
       <c r="JI27" s="11">
         <v>1800</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -18407,8 +18467,11 @@
       <c r="JI28" s="11">
         <v>200</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -19214,8 +19277,11 @@
       <c r="JI29" s="11">
         <v>2000</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>31</v>
       </c>
@@ -20021,8 +20087,11 @@
       <c r="JI30" s="11">
         <v>7200</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>7200</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -20828,8 +20897,11 @@
       <c r="JI31" s="11">
         <v>4100</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>35</v>
       </c>
@@ -21633,10 +21705,13 @@
         <v>9700</v>
       </c>
       <c r="JI32" s="11">
-        <v>9900</v>
+        <v>10100</v>
+      </c>
+      <c r="JJ32" s="11">
+        <v>10200</v>
       </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>37</v>
       </c>
@@ -22442,8 +22517,11 @@
       <c r="JI33" s="11">
         <v>8600</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>41</v>
       </c>
@@ -23247,10 +23325,13 @@
         <v>12100</v>
       </c>
       <c r="JI34" s="11">
-        <v>12200</v>
+        <v>12100</v>
+      </c>
+      <c r="JJ34" s="11">
+        <v>11900</v>
       </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>43</v>
       </c>
@@ -24056,8 +24137,11 @@
       <c r="JI35" s="11">
         <v>11200</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>11000</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>45</v>
       </c>
@@ -24863,8 +24947,11 @@
       <c r="JI36" s="11">
         <v>6500</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>6600</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>47</v>
       </c>
@@ -25670,8 +25757,11 @@
       <c r="JI37" s="11">
         <v>1800</v>
       </c>
+      <c r="JJ37" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>48</v>
       </c>
@@ -26477,8 +26567,11 @@
       <c r="JI38" s="11">
         <v>9200</v>
       </c>
+      <c r="JJ38" s="11">
+        <v>9300</v>
+      </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>49</v>
       </c>
@@ -27284,8 +27377,11 @@
       <c r="JI39" s="11">
         <v>200</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>53</v>
       </c>
@@ -28091,8 +28187,11 @@
       <c r="JI40" s="11">
         <v>9000</v>
       </c>
+      <c r="JJ40" s="11">
+        <v>9100</v>
+      </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>54</v>
       </c>
@@ -28898,8 +28997,11 @@
       <c r="JI41" s="11">
         <v>3600</v>
       </c>
+      <c r="JJ41" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>55</v>
       </c>
@@ -29705,8 +29807,11 @@
       <c r="JI42" s="11">
         <v>5400</v>
       </c>
+      <c r="JJ42" s="11">
+        <v>5500</v>
+      </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>56</v>
       </c>
@@ -30512,8 +30617,11 @@
       <c r="JI43" s="11">
         <v>2900</v>
       </c>
+      <c r="JJ43" s="11">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>57</v>
       </c>
@@ -31319,8 +31427,11 @@
       <c r="JI44" s="11">
         <v>2500</v>
       </c>
+      <c r="JJ44" s="11">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>58</v>
       </c>
@@ -32126,8 +32237,11 @@
       <c r="JI45" s="11">
         <v>1600</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>59</v>
       </c>
@@ -32933,8 +33047,11 @@
       <c r="JI46" s="11">
         <v>800</v>
       </c>
+      <c r="JJ46" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>60</v>
       </c>
@@ -33738,6 +33855,9 @@
         <v>100</v>
       </c>
       <c r="JI47" s="11">
+        <v>100</v>
+      </c>
+      <c r="JJ47" s="11">
         <v>100</v>
       </c>
     </row>

--- a/lowe/edd/data/NAPA$HWS.xlsx
+++ b/lowe/edd/data/NAPA$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-722000</t>
@@ -1391,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ56"/>
+  <dimension ref="A1:JL56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,12 +1408,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1441,12 +1441,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2267,11 +2267,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3078,10 +3084,16 @@
         <v>71300</v>
       </c>
       <c r="JJ9" s="11">
-        <v>71100</v>
+        <v>70900</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>68800</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>67000</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3888,10 +3900,16 @@
         <v>68100</v>
       </c>
       <c r="JJ10" s="11">
-        <v>67900</v>
+        <v>67700</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>66000</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>64200</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4700,8 +4718,14 @@
       <c r="JJ11" s="11">
         <v>3200</v>
       </c>
+      <c r="JK11" s="11">
+        <v>2900</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5510,8 +5534,14 @@
       <c r="JJ12" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6318,10 +6348,16 @@
         <v>76000</v>
       </c>
       <c r="JJ13" s="11">
-        <v>76200</v>
+        <v>76000</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>73400</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>71200</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7130,8 +7166,14 @@
       <c r="JJ14" s="11">
         <v>5700</v>
       </c>
+      <c r="JK14" s="11">
+        <v>3700</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7938,10 +7980,16 @@
         <v>70100</v>
       </c>
       <c r="JJ15" s="11">
-        <v>70500</v>
+        <v>70300</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>69700</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>67900</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8748,10 +8796,16 @@
         <v>60900</v>
       </c>
       <c r="JJ16" s="11">
-        <v>61200</v>
+        <v>61100</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>60400</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>58800</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9558,10 +9612,16 @@
         <v>17800</v>
       </c>
       <c r="JJ17" s="11">
-        <v>17900</v>
+        <v>17600</v>
+      </c>
+      <c r="JK17" s="11">
+        <v>17200</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>15800</v>
       </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10368,10 +10428,16 @@
         <v>4300</v>
       </c>
       <c r="JJ18" s="11">
-        <v>4300</v>
+        <v>4200</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>4100</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>3400</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11178,10 +11244,16 @@
         <v>13500</v>
       </c>
       <c r="JJ19" s="11">
-        <v>13600</v>
+        <v>13400</v>
+      </c>
+      <c r="JK19" s="11">
+        <v>13100</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>12400</v>
       </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -11988,10 +12060,16 @@
         <v>12000</v>
       </c>
       <c r="JJ20" s="11">
-        <v>12000</v>
+        <v>11900</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>11600</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>10800</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -12800,8 +12878,14 @@
       <c r="JJ21" s="11">
         <v>11200</v>
       </c>
+      <c r="JK21" s="11">
+        <v>10800</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -13608,10 +13692,16 @@
         <v>52300</v>
       </c>
       <c r="JJ22" s="11">
-        <v>52600</v>
+        <v>52700</v>
+      </c>
+      <c r="JK22" s="11">
+        <v>52500</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>52100</v>
       </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -14418,10 +14508,16 @@
         <v>43100</v>
       </c>
       <c r="JJ23" s="11">
-        <v>43300</v>
+        <v>43500</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>43200</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>43000</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -15230,8 +15326,14 @@
       <c r="JJ24" s="11">
         <v>10000</v>
       </c>
+      <c r="JK24" s="11">
+        <v>10200</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>10200</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -16040,8 +16142,14 @@
       <c r="JJ25" s="11">
         <v>1500</v>
       </c>
+      <c r="JK25" s="11">
+        <v>1600</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -16850,8 +16958,14 @@
       <c r="JJ26" s="11">
         <v>6700</v>
       </c>
+      <c r="JK26" s="11">
+        <v>6800</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>6800</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -17660,8 +17774,14 @@
       <c r="JJ27" s="11">
         <v>1800</v>
       </c>
+      <c r="JK27" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -18470,8 +18590,14 @@
       <c r="JJ28" s="11">
         <v>200</v>
       </c>
+      <c r="JK28" s="11">
+        <v>200</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -19280,8 +19406,14 @@
       <c r="JJ29" s="11">
         <v>2000</v>
       </c>
+      <c r="JK29" s="11">
+        <v>2000</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>31</v>
       </c>
@@ -20088,10 +20220,16 @@
         <v>7200</v>
       </c>
       <c r="JJ30" s="11">
-        <v>7200</v>
+        <v>7500</v>
+      </c>
+      <c r="JK30" s="11">
+        <v>7500</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>7400</v>
       </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -20898,10 +21036,16 @@
         <v>4100</v>
       </c>
       <c r="JJ31" s="11">
+        <v>4300</v>
+      </c>
+      <c r="JK31" s="11">
         <v>4200</v>
       </c>
+      <c r="JL31" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>35</v>
       </c>
@@ -21710,8 +21854,14 @@
       <c r="JJ32" s="11">
         <v>10200</v>
       </c>
+      <c r="JK32" s="11">
+        <v>10100</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>37</v>
       </c>
@@ -22520,8 +22670,14 @@
       <c r="JJ33" s="11">
         <v>8700</v>
       </c>
+      <c r="JK33" s="11">
+        <v>8600</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>8500</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>41</v>
       </c>
@@ -23328,10 +23484,16 @@
         <v>12100</v>
       </c>
       <c r="JJ34" s="11">
-        <v>11900</v>
+        <v>11800</v>
+      </c>
+      <c r="JK34" s="11">
+        <v>11400</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>11500</v>
       </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>43</v>
       </c>
@@ -24138,10 +24300,16 @@
         <v>11200</v>
       </c>
       <c r="JJ35" s="11">
-        <v>11000</v>
+        <v>10900</v>
+      </c>
+      <c r="JK35" s="11">
+        <v>10600</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>10600</v>
       </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>45</v>
       </c>
@@ -24950,8 +25118,14 @@
       <c r="JJ36" s="11">
         <v>6600</v>
       </c>
+      <c r="JK36" s="11">
+        <v>6600</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>6600</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>47</v>
       </c>
@@ -25760,8 +25934,14 @@
       <c r="JJ37" s="11">
         <v>1800</v>
       </c>
+      <c r="JK37" s="11">
+        <v>1800</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>48</v>
       </c>
@@ -26568,10 +26748,16 @@
         <v>9200</v>
       </c>
       <c r="JJ38" s="11">
+        <v>9200</v>
+      </c>
+      <c r="JK38" s="11">
         <v>9300</v>
       </c>
+      <c r="JL38" s="11">
+        <v>9100</v>
+      </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>49</v>
       </c>
@@ -27380,8 +27566,14 @@
       <c r="JJ39" s="11">
         <v>200</v>
       </c>
+      <c r="JK39" s="11">
+        <v>200</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>53</v>
       </c>
@@ -28188,10 +28380,16 @@
         <v>9000</v>
       </c>
       <c r="JJ40" s="11">
+        <v>9000</v>
+      </c>
+      <c r="JK40" s="11">
         <v>9100</v>
       </c>
+      <c r="JL40" s="11">
+        <v>8900</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>54</v>
       </c>
@@ -29000,8 +29198,14 @@
       <c r="JJ41" s="11">
         <v>3600</v>
       </c>
+      <c r="JK41" s="11">
+        <v>3600</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>55</v>
       </c>
@@ -29808,10 +30012,16 @@
         <v>5400</v>
       </c>
       <c r="JJ42" s="11">
+        <v>5400</v>
+      </c>
+      <c r="JK42" s="11">
         <v>5500</v>
       </c>
+      <c r="JL42" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>56</v>
       </c>
@@ -30618,10 +30828,16 @@
         <v>2900</v>
       </c>
       <c r="JJ43" s="11">
+        <v>2900</v>
+      </c>
+      <c r="JK43" s="11">
         <v>3000</v>
       </c>
+      <c r="JL43" s="11">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>57</v>
       </c>
@@ -31430,8 +31646,14 @@
       <c r="JJ44" s="11">
         <v>2500</v>
       </c>
+      <c r="JK44" s="11">
+        <v>2500</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>2400</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>58</v>
       </c>
@@ -32240,8 +32462,14 @@
       <c r="JJ45" s="11">
         <v>1600</v>
       </c>
+      <c r="JK45" s="11">
+        <v>1600</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>59</v>
       </c>
@@ -33050,8 +33278,14 @@
       <c r="JJ46" s="11">
         <v>800</v>
       </c>
+      <c r="JK46" s="11">
+        <v>800</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>60</v>
       </c>
@@ -33858,6 +34092,12 @@
         <v>100</v>
       </c>
       <c r="JJ47" s="11">
+        <v>100</v>
+      </c>
+      <c r="JK47" s="11">
+        <v>100</v>
+      </c>
+      <c r="JL47" s="11">
         <v>100</v>
       </c>
     </row>
